--- a/Outputs/RIF/Tables/AUC_comparisons.xlsx
+++ b/Outputs/RIF/Tables/AUC_comparisons.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="45" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="87" uniqueCount="3">
   <si>
     <t>AUC_24; % Higher than Oral Dose</t>
   </si>
@@ -122,16 +122,16 @@
         <v>100</v>
       </c>
       <c r="C3" s="0">
-        <v>-82.680000000000007</v>
+        <v>-82.540000000000006</v>
       </c>
       <c r="D3" s="0">
-        <v>-65.349999999999994</v>
+        <v>-65.090000000000003</v>
       </c>
       <c r="E3" s="0">
-        <v>-48.030000000000001</v>
+        <v>-47.640000000000001</v>
       </c>
       <c r="F3" s="0">
-        <v>-30.710000000000001</v>
+        <v>-30.199999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -140,16 +140,16 @@
         <v>150</v>
       </c>
       <c r="C4" s="0">
-        <v>-74.010000000000005</v>
+        <v>-73.810000000000002</v>
       </c>
       <c r="D4" s="0">
-        <v>-48.030000000000001</v>
+        <v>-47.640000000000001</v>
       </c>
       <c r="E4" s="0">
-        <v>-22.050000000000001</v>
+        <v>-21.469999999999999</v>
       </c>
       <c r="F4" s="0">
-        <v>3.9300000000000002</v>
+        <v>4.7000000000000002</v>
       </c>
     </row>
     <row r="5">
@@ -158,16 +158,16 @@
         <v>200</v>
       </c>
       <c r="C5" s="0">
-        <v>-65.349999999999994</v>
+        <v>-65.079999999999998</v>
       </c>
       <c r="D5" s="0">
-        <v>-30.710000000000001</v>
+        <v>-30.18</v>
       </c>
       <c r="E5" s="0">
-        <v>3.9300000000000002</v>
+        <v>4.71</v>
       </c>
       <c r="F5" s="0">
-        <v>38.57</v>
+        <v>39.600000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -176,16 +176,16 @@
         <v>250</v>
       </c>
       <c r="C6" s="0">
-        <v>-56.689999999999998</v>
+        <v>-56.350000000000001</v>
       </c>
       <c r="D6" s="0">
-        <v>-13.390000000000001</v>
+        <v>-12.73</v>
       </c>
       <c r="E6" s="0">
-        <v>29.920000000000002</v>
+        <v>30.890000000000001</v>
       </c>
       <c r="F6" s="0">
-        <v>73.219999999999999</v>
+        <v>74.510000000000005</v>
       </c>
     </row>
     <row r="7">
@@ -194,16 +194,16 @@
         <v>300</v>
       </c>
       <c r="C7" s="0">
-        <v>-48.030000000000001</v>
+        <v>-47.619999999999998</v>
       </c>
       <c r="D7" s="0">
-        <v>3.94</v>
+        <v>4.7199999999999998</v>
       </c>
       <c r="E7" s="0">
-        <v>55.899999999999999</v>
+        <v>57.07</v>
       </c>
       <c r="F7" s="0">
-        <v>107.86</v>
+        <v>109.41</v>
       </c>
     </row>
     <row r="8">
@@ -212,16 +212,16 @@
         <v>350</v>
       </c>
       <c r="C8" s="0">
-        <v>-39.36</v>
+        <v>-38.899999999999999</v>
       </c>
       <c r="D8" s="0">
-        <v>21.260000000000002</v>
+        <v>22.18</v>
       </c>
       <c r="E8" s="0">
-        <v>81.879999999999996</v>
+        <v>83.239999999999995</v>
       </c>
       <c r="F8" s="0">
-        <v>142.5</v>
+        <v>144.31</v>
       </c>
     </row>
     <row r="9">
@@ -230,16 +230,16 @@
         <v>400</v>
       </c>
       <c r="C9" s="0">
-        <v>-30.699999999999999</v>
+        <v>-30.170000000000002</v>
       </c>
       <c r="D9" s="0">
-        <v>38.579999999999998</v>
+        <v>39.630000000000003</v>
       </c>
       <c r="E9" s="0">
-        <v>107.87</v>
+        <v>109.42</v>
       </c>
       <c r="F9" s="0">
-        <v>177.15000000000001</v>
+        <v>179.21000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -248,16 +248,16 @@
         <v>450</v>
       </c>
       <c r="C10" s="0">
-        <v>-22.039999999999999</v>
+        <v>-21.440000000000001</v>
       </c>
       <c r="D10" s="0">
-        <v>55.909999999999997</v>
+        <v>57.090000000000004</v>
       </c>
       <c r="E10" s="0">
-        <v>133.85</v>
+        <v>135.6</v>
       </c>
       <c r="F10" s="0">
-        <v>211.78999999999999</v>
+        <v>214.11000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -266,16 +266,16 @@
         <v>500</v>
       </c>
       <c r="C11" s="0">
-        <v>-13.380000000000001</v>
+        <v>-12.710000000000001</v>
       </c>
       <c r="D11" s="0">
-        <v>73.230000000000004</v>
+        <v>74.540000000000006</v>
       </c>
       <c r="E11" s="0">
-        <v>159.83000000000001</v>
+        <v>161.78</v>
       </c>
       <c r="F11" s="0">
-        <v>246.43000000000001</v>
+        <v>249.00999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -284,16 +284,16 @@
         <v>550</v>
       </c>
       <c r="C12" s="0">
-        <v>-4.71</v>
+        <v>-3.98</v>
       </c>
       <c r="D12" s="0">
-        <v>90.549999999999997</v>
+        <v>91.989999999999995</v>
       </c>
       <c r="E12" s="0">
-        <v>185.81999999999999</v>
+        <v>187.94999999999999</v>
       </c>
       <c r="F12" s="0">
-        <v>281.07999999999999</v>
+        <v>283.91000000000003</v>
       </c>
     </row>
     <row r="13">
@@ -302,16 +302,16 @@
         <v>600</v>
       </c>
       <c r="C13" s="0">
-        <v>3.9500000000000002</v>
+        <v>4.75</v>
       </c>
       <c r="D13" s="0">
-        <v>107.88</v>
+        <v>109.45</v>
       </c>
       <c r="E13" s="0">
-        <v>211.80000000000001</v>
+        <v>214.13</v>
       </c>
       <c r="F13" s="0">
-        <v>315.72000000000003</v>
+        <v>318.81</v>
       </c>
     </row>
     <row r="14">
@@ -320,16 +320,16 @@
         <v>650</v>
       </c>
       <c r="C14" s="0">
-        <v>12.609999999999999</v>
+        <v>13.48</v>
       </c>
       <c r="D14" s="0">
-        <v>125.2</v>
+        <v>126.90000000000001</v>
       </c>
       <c r="E14" s="0">
-        <v>237.78</v>
+        <v>240.31</v>
       </c>
       <c r="F14" s="0">
-        <v>350.36000000000001</v>
+        <v>353.72000000000003</v>
       </c>
     </row>
     <row r="15">
@@ -338,16 +338,16 @@
         <v>700</v>
       </c>
       <c r="C15" s="0">
-        <v>21.27</v>
+        <v>22.210000000000001</v>
       </c>
       <c r="D15" s="0">
-        <v>142.52000000000001</v>
+        <v>144.35</v>
       </c>
       <c r="E15" s="0">
-        <v>263.76999999999998</v>
+        <v>266.49000000000001</v>
       </c>
       <c r="F15" s="0">
-        <v>385.00999999999999</v>
+        <v>388.62</v>
       </c>
     </row>
     <row r="16">
@@ -356,16 +356,16 @@
         <v>750</v>
       </c>
       <c r="C16" s="0">
-        <v>29.940000000000001</v>
+        <v>30.940000000000001</v>
       </c>
       <c r="D16" s="0">
-        <v>159.84</v>
+        <v>161.81</v>
       </c>
       <c r="E16" s="0">
-        <v>289.75</v>
+        <v>292.66000000000003</v>
       </c>
       <c r="F16" s="0">
-        <v>419.64999999999998</v>
+        <v>423.51999999999998</v>
       </c>
     </row>
     <row r="17">
@@ -374,16 +374,16 @@
         <v>800</v>
       </c>
       <c r="C17" s="0">
-        <v>38.600000000000001</v>
+        <v>39.670000000000002</v>
       </c>
       <c r="D17" s="0">
-        <v>177.16999999999999</v>
+        <v>179.25999999999999</v>
       </c>
       <c r="E17" s="0">
-        <v>315.73000000000002</v>
+        <v>318.83999999999998</v>
       </c>
       <c r="F17" s="0">
-        <v>454.29000000000002</v>
+        <v>458.42000000000002</v>
       </c>
     </row>
     <row r="18">
@@ -392,16 +392,16 @@
         <v>850</v>
       </c>
       <c r="C18" s="0">
-        <v>47.259999999999998</v>
+        <v>48.399999999999999</v>
       </c>
       <c r="D18" s="0">
-        <v>194.49000000000001</v>
+        <v>196.72</v>
       </c>
       <c r="E18" s="0">
-        <v>341.70999999999998</v>
+        <v>345.01999999999998</v>
       </c>
       <c r="F18" s="0">
-        <v>488.94</v>
+        <v>493.31999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -410,16 +410,16 @@
         <v>900</v>
       </c>
       <c r="C19" s="0">
-        <v>55.920000000000002</v>
+        <v>57.130000000000003</v>
       </c>
       <c r="D19" s="0">
-        <v>211.81</v>
+        <v>214.16999999999999</v>
       </c>
       <c r="E19" s="0">
-        <v>367.69999999999999</v>
+        <v>371.19999999999999</v>
       </c>
       <c r="F19" s="0">
-        <v>523.58000000000004</v>
+        <v>528.22000000000003</v>
       </c>
     </row>
     <row r="20">
@@ -428,16 +428,16 @@
         <v>950</v>
       </c>
       <c r="C20" s="0">
-        <v>64.590000000000003</v>
+        <v>65.86</v>
       </c>
       <c r="D20" s="0">
-        <v>229.13999999999999</v>
+        <v>231.62</v>
       </c>
       <c r="E20" s="0">
-        <v>393.68000000000001</v>
+        <v>397.38</v>
       </c>
       <c r="F20" s="0">
-        <v>558.23000000000002</v>
+        <v>563.12</v>
       </c>
     </row>
     <row r="21">
@@ -446,16 +446,16 @@
         <v>1000</v>
       </c>
       <c r="C21" s="0">
-        <v>73.25</v>
+        <v>74.579999999999998</v>
       </c>
       <c r="D21" s="0">
-        <v>246.46000000000001</v>
+        <v>249.08000000000001</v>
       </c>
       <c r="E21" s="0">
-        <v>419.66000000000003</v>
+        <v>423.55000000000001</v>
       </c>
       <c r="F21" s="0">
-        <v>592.87</v>
+        <v>598.01999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -514,16 +514,16 @@
         <v>100</v>
       </c>
       <c r="C3" s="0">
-        <v>-82.969999999999999</v>
+        <v>-83.030000000000001</v>
       </c>
       <c r="D3" s="0">
-        <v>-65.950000000000003</v>
+        <v>-66.079999999999998</v>
       </c>
       <c r="E3" s="0">
-        <v>-48.93</v>
+        <v>-49.130000000000003</v>
       </c>
       <c r="F3" s="0">
-        <v>-31.899999999999999</v>
+        <v>-32.170000000000002</v>
       </c>
     </row>
     <row r="4">
@@ -532,16 +532,16 @@
         <v>150</v>
       </c>
       <c r="C4" s="0">
-        <v>-74.459999999999994</v>
+        <v>-74.549999999999997</v>
       </c>
       <c r="D4" s="0">
-        <v>-48.920000000000002</v>
+        <v>-49.119999999999998</v>
       </c>
       <c r="E4" s="0">
-        <v>-23.390000000000001</v>
+        <v>-23.690000000000001</v>
       </c>
       <c r="F4" s="0">
-        <v>2.1499999999999999</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="5">
@@ -550,16 +550,16 @@
         <v>200</v>
       </c>
       <c r="C5" s="0">
-        <v>-65.950000000000003</v>
+        <v>-66.069999999999993</v>
       </c>
       <c r="D5" s="0">
-        <v>-31.899999999999999</v>
+        <v>-32.159999999999997</v>
       </c>
       <c r="E5" s="0">
-        <v>2.1499999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="F5" s="0">
-        <v>36.189999999999998</v>
+        <v>35.659999999999997</v>
       </c>
     </row>
     <row r="6">
@@ -568,16 +568,16 @@
         <v>250</v>
       </c>
       <c r="C6" s="0">
-        <v>-57.43</v>
+        <v>-57.579999999999998</v>
       </c>
       <c r="D6" s="0">
-        <v>-14.869999999999999</v>
+        <v>-15.199999999999999</v>
       </c>
       <c r="E6" s="0">
-        <v>27.68</v>
+        <v>27.190000000000001</v>
       </c>
       <c r="F6" s="0">
-        <v>70.239999999999995</v>
+        <v>69.569999999999993</v>
       </c>
     </row>
     <row r="7">
@@ -586,16 +586,16 @@
         <v>300</v>
       </c>
       <c r="C7" s="0">
-        <v>-48.920000000000002</v>
+        <v>-49.100000000000001</v>
       </c>
       <c r="D7" s="0">
-        <v>2.1499999999999999</v>
+        <v>1.76</v>
       </c>
       <c r="E7" s="0">
-        <v>53.219999999999999</v>
+        <v>52.619999999999998</v>
       </c>
       <c r="F7" s="0">
-        <v>104.29000000000001</v>
+        <v>103.48</v>
       </c>
     </row>
     <row r="8">
@@ -604,16 +604,16 @@
         <v>350</v>
       </c>
       <c r="C8" s="0">
-        <v>-40.399999999999999</v>
+        <v>-40.619999999999998</v>
       </c>
       <c r="D8" s="0">
-        <v>19.18</v>
+        <v>18.719999999999999</v>
       </c>
       <c r="E8" s="0">
-        <v>78.760000000000005</v>
+        <v>78.060000000000002</v>
       </c>
       <c r="F8" s="0">
-        <v>138.34</v>
+        <v>137.40000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -622,16 +622,16 @@
         <v>400</v>
       </c>
       <c r="C9" s="0">
-        <v>-31.890000000000001</v>
+        <v>-32.140000000000001</v>
       </c>
       <c r="D9" s="0">
-        <v>36.200000000000003</v>
+        <v>35.689999999999998</v>
       </c>
       <c r="E9" s="0">
-        <v>104.3</v>
+        <v>103.5</v>
       </c>
       <c r="F9" s="0">
-        <v>172.38999999999999</v>
+        <v>171.31</v>
       </c>
     </row>
     <row r="10">
@@ -640,16 +640,16 @@
         <v>450</v>
       </c>
       <c r="C10" s="0">
-        <v>-23.379999999999999</v>
+        <v>-23.649999999999999</v>
       </c>
       <c r="D10" s="0">
-        <v>53.229999999999997</v>
+        <v>52.649999999999999</v>
       </c>
       <c r="E10" s="0">
-        <v>129.83000000000001</v>
+        <v>128.94</v>
       </c>
       <c r="F10" s="0">
-        <v>206.44</v>
+        <v>205.22</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         <v>500</v>
       </c>
       <c r="C11" s="0">
-        <v>-14.859999999999999</v>
+        <v>-15.17</v>
       </c>
       <c r="D11" s="0">
-        <v>70.25</v>
+        <v>69.61</v>
       </c>
       <c r="E11" s="0">
-        <v>155.37</v>
+        <v>154.37</v>
       </c>
       <c r="F11" s="0">
-        <v>240.47999999999999</v>
+        <v>239.13999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -676,16 +676,16 @@
         <v>550</v>
       </c>
       <c r="C12" s="0">
-        <v>-6.3499999999999997</v>
+        <v>-6.6900000000000004</v>
       </c>
       <c r="D12" s="0">
-        <v>87.280000000000001</v>
+        <v>86.569999999999993</v>
       </c>
       <c r="E12" s="0">
-        <v>180.91</v>
+        <v>179.81</v>
       </c>
       <c r="F12" s="0">
-        <v>274.52999999999997</v>
+        <v>273.05000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -694,16 +694,16 @@
         <v>600</v>
       </c>
       <c r="C13" s="0">
-        <v>2.1600000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="D13" s="0">
-        <v>104.31</v>
+        <v>103.53</v>
       </c>
       <c r="E13" s="0">
-        <v>206.44</v>
+        <v>205.25</v>
       </c>
       <c r="F13" s="0">
-        <v>308.57999999999999</v>
+        <v>306.97000000000003</v>
       </c>
     </row>
     <row r="14">
@@ -712,16 +712,16 @@
         <v>650</v>
       </c>
       <c r="C14" s="0">
-        <v>10.68</v>
+        <v>10.279999999999999</v>
       </c>
       <c r="D14" s="0">
-        <v>121.33</v>
+        <v>120.48999999999999</v>
       </c>
       <c r="E14" s="0">
-        <v>231.97999999999999</v>
+        <v>230.69</v>
       </c>
       <c r="F14" s="0">
-        <v>342.63</v>
+        <v>340.88</v>
       </c>
     </row>
     <row r="15">
@@ -730,16 +730,16 @@
         <v>700</v>
       </c>
       <c r="C15" s="0">
-        <v>19.190000000000001</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="D15" s="0">
-        <v>138.36000000000001</v>
+        <v>137.44999999999999</v>
       </c>
       <c r="E15" s="0">
-        <v>257.51999999999998</v>
+        <v>256.12</v>
       </c>
       <c r="F15" s="0">
-        <v>376.68000000000001</v>
+        <v>374.79000000000002</v>
       </c>
     </row>
     <row r="16">
@@ -748,16 +748,16 @@
         <v>750</v>
       </c>
       <c r="C16" s="0">
-        <v>27.710000000000001</v>
+        <v>27.25</v>
       </c>
       <c r="D16" s="0">
-        <v>155.38</v>
+        <v>154.41</v>
       </c>
       <c r="E16" s="0">
-        <v>283.05000000000001</v>
+        <v>281.56</v>
       </c>
       <c r="F16" s="0">
-        <v>410.73000000000002</v>
+        <v>408.70999999999998</v>
       </c>
     </row>
     <row r="17">
@@ -766,16 +766,16 @@
         <v>800</v>
       </c>
       <c r="C17" s="0">
-        <v>36.219999999999999</v>
+        <v>35.729999999999997</v>
       </c>
       <c r="D17" s="0">
-        <v>172.41</v>
+        <v>171.37</v>
       </c>
       <c r="E17" s="0">
-        <v>308.58999999999998</v>
+        <v>307</v>
       </c>
       <c r="F17" s="0">
-        <v>444.76999999999998</v>
+        <v>442.62</v>
       </c>
     </row>
     <row r="18">
@@ -784,16 +784,16 @@
         <v>850</v>
       </c>
       <c r="C18" s="0">
-        <v>44.729999999999997</v>
+        <v>44.210000000000001</v>
       </c>
       <c r="D18" s="0">
-        <v>189.43000000000001</v>
+        <v>188.33000000000001</v>
       </c>
       <c r="E18" s="0">
-        <v>334.13</v>
+        <v>332.44</v>
       </c>
       <c r="F18" s="0">
-        <v>478.81999999999999</v>
+        <v>476.54000000000002</v>
       </c>
     </row>
     <row r="19">
@@ -802,16 +802,16 @@
         <v>900</v>
       </c>
       <c r="C19" s="0">
-        <v>53.25</v>
+        <v>52.689999999999998</v>
       </c>
       <c r="D19" s="0">
-        <v>206.46000000000001</v>
+        <v>205.28999999999999</v>
       </c>
       <c r="E19" s="0">
-        <v>359.67000000000002</v>
+        <v>357.87</v>
       </c>
       <c r="F19" s="0">
-        <v>512.87</v>
+        <v>510.44999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -820,16 +820,16 @@
         <v>950</v>
       </c>
       <c r="C20" s="0">
-        <v>61.759999999999998</v>
+        <v>61.18</v>
       </c>
       <c r="D20" s="0">
-        <v>223.47999999999999</v>
+        <v>222.25</v>
       </c>
       <c r="E20" s="0">
-        <v>385.19999999999999</v>
+        <v>383.31</v>
       </c>
       <c r="F20" s="0">
-        <v>546.91999999999996</v>
+        <v>544.36000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -838,16 +838,16 @@
         <v>1000</v>
       </c>
       <c r="C21" s="0">
-        <v>70.269999999999996</v>
+        <v>69.659999999999997</v>
       </c>
       <c r="D21" s="0">
-        <v>240.50999999999999</v>
+        <v>239.21000000000001</v>
       </c>
       <c r="E21" s="0">
-        <v>410.74000000000001</v>
+        <v>408.75</v>
       </c>
       <c r="F21" s="0">
-        <v>580.97000000000003</v>
+        <v>578.27999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -906,16 +906,16 @@
         <v>100</v>
       </c>
       <c r="C3" s="0">
-        <v>-83.560000000000002</v>
+        <v>-83.599999999999994</v>
       </c>
       <c r="D3" s="0">
-        <v>-67.120000000000005</v>
+        <v>-67.219999999999999</v>
       </c>
       <c r="E3" s="0">
-        <v>-50.689999999999998</v>
+        <v>-50.829999999999998</v>
       </c>
       <c r="F3" s="0">
-        <v>-34.25</v>
+        <v>-34.439999999999998</v>
       </c>
     </row>
     <row r="4">
@@ -924,16 +924,16 @@
         <v>150</v>
       </c>
       <c r="C4" s="0">
-        <v>-75.340000000000003</v>
+        <v>-75.409999999999997</v>
       </c>
       <c r="D4" s="0">
-        <v>-50.689999999999998</v>
+        <v>-50.82</v>
       </c>
       <c r="E4" s="0">
-        <v>-26.030000000000001</v>
+        <v>-26.239999999999999</v>
       </c>
       <c r="F4" s="0">
-        <v>-1.3799999999999999</v>
+        <v>-1.6699999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -942,16 +942,16 @@
         <v>200</v>
       </c>
       <c r="C5" s="0">
-        <v>-67.120000000000005</v>
+        <v>-67.209999999999994</v>
       </c>
       <c r="D5" s="0">
-        <v>-34.25</v>
+        <v>-34.43</v>
       </c>
       <c r="E5" s="0">
-        <v>-1.3799999999999999</v>
+        <v>-1.6599999999999999</v>
       </c>
       <c r="F5" s="0">
-        <v>31.489999999999999</v>
+        <v>31.11</v>
       </c>
     </row>
     <row r="6">
@@ -960,16 +960,16 @@
         <v>250</v>
       </c>
       <c r="C6" s="0">
-        <v>-58.899999999999999</v>
+        <v>-59.009999999999998</v>
       </c>
       <c r="D6" s="0">
-        <v>-17.809999999999999</v>
+        <v>-18.039999999999999</v>
       </c>
       <c r="E6" s="0">
-        <v>23.280000000000001</v>
+        <v>22.93</v>
       </c>
       <c r="F6" s="0">
-        <v>64.36</v>
+        <v>63.890000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -978,16 +978,16 @@
         <v>300</v>
       </c>
       <c r="C7" s="0">
-        <v>-50.68</v>
+        <v>-50.810000000000002</v>
       </c>
       <c r="D7" s="0">
-        <v>-1.3700000000000001</v>
+        <v>-1.6499999999999999</v>
       </c>
       <c r="E7" s="0">
-        <v>47.93</v>
+        <v>47.509999999999998</v>
       </c>
       <c r="F7" s="0">
-        <v>97.239999999999995</v>
+        <v>96.670000000000002</v>
       </c>
     </row>
     <row r="8">
@@ -996,16 +996,16 @@
         <v>350</v>
       </c>
       <c r="C8" s="0">
-        <v>-42.460000000000001</v>
+        <v>-42.61</v>
       </c>
       <c r="D8" s="0">
-        <v>15.06</v>
+        <v>14.75</v>
       </c>
       <c r="E8" s="0">
-        <v>72.590000000000003</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="F8" s="0">
-        <v>130.11000000000001</v>
+        <v>129.44999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -1014,16 +1014,16 @@
         <v>400</v>
       </c>
       <c r="C9" s="0">
-        <v>-34.240000000000002</v>
+        <v>-34.409999999999997</v>
       </c>
       <c r="D9" s="0">
-        <v>31.5</v>
+        <v>31.140000000000001</v>
       </c>
       <c r="E9" s="0">
-        <v>97.239999999999995</v>
+        <v>96.680000000000007</v>
       </c>
       <c r="F9" s="0">
-        <v>162.97999999999999</v>
+        <v>162.22999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1032,16 +1032,16 @@
         <v>450</v>
       </c>
       <c r="C10" s="0">
-        <v>-26.02</v>
+        <v>-26.219999999999999</v>
       </c>
       <c r="D10" s="0">
-        <v>47.939999999999998</v>
+        <v>47.530000000000001</v>
       </c>
       <c r="E10" s="0">
-        <v>121.90000000000001</v>
+        <v>121.27</v>
       </c>
       <c r="F10" s="0">
-        <v>195.85</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
@@ -1050,16 +1050,16 @@
         <v>500</v>
       </c>
       <c r="C11" s="0">
-        <v>-17.800000000000001</v>
+        <v>-18.02</v>
       </c>
       <c r="D11" s="0">
-        <v>64.379999999999996</v>
+        <v>63.920000000000002</v>
       </c>
       <c r="E11" s="0">
-        <v>146.55000000000001</v>
+        <v>145.85</v>
       </c>
       <c r="F11" s="0">
-        <v>228.72999999999999</v>
+        <v>227.78</v>
       </c>
     </row>
     <row r="12">
@@ -1068,16 +1068,16 @@
         <v>550</v>
       </c>
       <c r="C12" s="0">
-        <v>-9.5800000000000001</v>
+        <v>-9.8200000000000003</v>
       </c>
       <c r="D12" s="0">
-        <v>80.810000000000002</v>
+        <v>80.319999999999993</v>
       </c>
       <c r="E12" s="0">
-        <v>171.21000000000001</v>
+        <v>170.44</v>
       </c>
       <c r="F12" s="0">
-        <v>261.60000000000002</v>
+        <v>260.56</v>
       </c>
     </row>
     <row r="13">
@@ -1086,16 +1086,16 @@
         <v>600</v>
       </c>
       <c r="C13" s="0">
-        <v>-1.3600000000000001</v>
+        <v>-1.6200000000000001</v>
       </c>
       <c r="D13" s="0">
-        <v>97.25</v>
+        <v>96.709999999999994</v>
       </c>
       <c r="E13" s="0">
-        <v>195.86000000000001</v>
+        <v>195.02000000000001</v>
       </c>
       <c r="F13" s="0">
-        <v>294.47000000000003</v>
+        <v>293.33999999999998</v>
       </c>
     </row>
     <row r="14">
@@ -1104,16 +1104,16 @@
         <v>650</v>
       </c>
       <c r="C14" s="0">
-        <v>6.8600000000000003</v>
+        <v>6.5800000000000001</v>
       </c>
       <c r="D14" s="0">
-        <v>113.69</v>
+        <v>113.09999999999999</v>
       </c>
       <c r="E14" s="0">
-        <v>220.52000000000001</v>
+        <v>219.61000000000001</v>
       </c>
       <c r="F14" s="0">
-        <v>327.33999999999998</v>
+        <v>326.12</v>
       </c>
     </row>
     <row r="15">
@@ -1122,16 +1122,16 @@
         <v>700</v>
       </c>
       <c r="C15" s="0">
-        <v>15.08</v>
+        <v>14.779999999999999</v>
       </c>
       <c r="D15" s="0">
-        <v>130.13</v>
+        <v>129.49000000000001</v>
       </c>
       <c r="E15" s="0">
-        <v>245.16999999999999</v>
+        <v>244.19999999999999</v>
       </c>
       <c r="F15" s="0">
-        <v>360.22000000000003</v>
+        <v>358.89999999999998</v>
       </c>
     </row>
     <row r="16">
@@ -1140,16 +1140,16 @@
         <v>750</v>
       </c>
       <c r="C16" s="0">
-        <v>23.289999999999999</v>
+        <v>22.969999999999999</v>
       </c>
       <c r="D16" s="0">
-        <v>146.56</v>
+        <v>145.88</v>
       </c>
       <c r="E16" s="0">
-        <v>269.82999999999999</v>
+        <v>268.77999999999997</v>
       </c>
       <c r="F16" s="0">
-        <v>393.08999999999998</v>
+        <v>391.67000000000002</v>
       </c>
     </row>
     <row r="17">
@@ -1158,16 +1158,16 @@
         <v>800</v>
       </c>
       <c r="C17" s="0">
-        <v>31.510000000000002</v>
+        <v>31.170000000000002</v>
       </c>
       <c r="D17" s="0">
-        <v>163</v>
+        <v>162.28</v>
       </c>
       <c r="E17" s="0">
-        <v>294.48000000000002</v>
+        <v>293.37</v>
       </c>
       <c r="F17" s="0">
-        <v>425.95999999999998</v>
+        <v>424.44999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -1176,16 +1176,16 @@
         <v>850</v>
       </c>
       <c r="C18" s="0">
-        <v>39.729999999999997</v>
+        <v>39.369999999999998</v>
       </c>
       <c r="D18" s="0">
-        <v>179.44</v>
+        <v>178.66999999999999</v>
       </c>
       <c r="E18" s="0">
-        <v>319.13999999999999</v>
+        <v>317.94999999999999</v>
       </c>
       <c r="F18" s="0">
-        <v>458.82999999999999</v>
+        <v>457.23000000000002</v>
       </c>
     </row>
     <row r="19">
@@ -1194,16 +1194,16 @@
         <v>900</v>
       </c>
       <c r="C19" s="0">
-        <v>47.950000000000003</v>
+        <v>47.57</v>
       </c>
       <c r="D19" s="0">
-        <v>195.88</v>
+        <v>195.06</v>
       </c>
       <c r="E19" s="0">
-        <v>343.79000000000002</v>
+        <v>342.54000000000002</v>
       </c>
       <c r="F19" s="0">
-        <v>491.70999999999998</v>
+        <v>490.00999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -1212,16 +1212,16 @@
         <v>950</v>
       </c>
       <c r="C20" s="0">
-        <v>56.170000000000002</v>
+        <v>55.770000000000003</v>
       </c>
       <c r="D20" s="0">
-        <v>212.31</v>
+        <v>211.44999999999999</v>
       </c>
       <c r="E20" s="0">
-        <v>368.44999999999999</v>
+        <v>367.12</v>
       </c>
       <c r="F20" s="0">
-        <v>524.58000000000004</v>
+        <v>522.78999999999996</v>
       </c>
     </row>
     <row r="21">
@@ -1230,16 +1230,16 @@
         <v>1000</v>
       </c>
       <c r="C21" s="0">
-        <v>64.390000000000001</v>
+        <v>63.969999999999999</v>
       </c>
       <c r="D21" s="0">
-        <v>228.75</v>
+        <v>227.85</v>
       </c>
       <c r="E21" s="0">
-        <v>393.10000000000002</v>
+        <v>391.70999999999998</v>
       </c>
       <c r="F21" s="0">
-        <v>557.45000000000005</v>
+        <v>555.57000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -1298,16 +1298,16 @@
         <v>100</v>
       </c>
       <c r="C3" s="0">
-        <v>-82.700000000000003</v>
+        <v>-82.739999999999995</v>
       </c>
       <c r="D3" s="0">
-        <v>-66.120000000000005</v>
+        <v>-67.450000000000003</v>
       </c>
       <c r="E3" s="0">
-        <v>-49.549999999999997</v>
+        <v>-52.170000000000002</v>
       </c>
       <c r="F3" s="0">
-        <v>-32.979999999999997</v>
+        <v>-36.899999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1316,16 +1316,16 @@
         <v>150</v>
       </c>
       <c r="C4" s="0">
-        <v>-74.049999999999997</v>
+        <v>-74.11</v>
       </c>
       <c r="D4" s="0">
-        <v>-49.18</v>
+        <v>-51.170000000000002</v>
       </c>
       <c r="E4" s="0">
-        <v>-24.32</v>
+        <v>-28.260000000000002</v>
       </c>
       <c r="F4" s="0">
-        <v>0.54000000000000004</v>
+        <v>-5.3499999999999996</v>
       </c>
     </row>
     <row r="5">
@@ -1334,16 +1334,16 @@
         <v>200</v>
       </c>
       <c r="C5" s="0">
-        <v>-65.400000000000006</v>
+        <v>-65.480000000000004</v>
       </c>
       <c r="D5" s="0">
-        <v>-32.240000000000002</v>
+        <v>-34.899999999999999</v>
       </c>
       <c r="E5" s="0">
-        <v>0.91000000000000003</v>
+        <v>-4.3399999999999999</v>
       </c>
       <c r="F5" s="0">
-        <v>34.049999999999997</v>
+        <v>26.199999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1352,16 +1352,16 @@
         <v>250</v>
       </c>
       <c r="C6" s="0">
-        <v>-56.75</v>
+        <v>-56.850000000000001</v>
       </c>
       <c r="D6" s="0">
-        <v>-15.300000000000001</v>
+        <v>-18.620000000000001</v>
       </c>
       <c r="E6" s="0">
-        <v>26.129999999999999</v>
+        <v>19.57</v>
       </c>
       <c r="F6" s="0">
-        <v>67.560000000000002</v>
+        <v>57.75</v>
       </c>
     </row>
     <row r="7">
@@ -1370,16 +1370,16 @@
         <v>300</v>
       </c>
       <c r="C7" s="0">
-        <v>-48.100000000000001</v>
+        <v>-48.219999999999999</v>
       </c>
       <c r="D7" s="0">
-        <v>1.6399999999999999</v>
+        <v>-2.3399999999999999</v>
       </c>
       <c r="E7" s="0">
-        <v>51.36</v>
+        <v>43.479999999999997</v>
       </c>
       <c r="F7" s="0">
-        <v>101.06999999999999</v>
+        <v>89.299999999999997</v>
       </c>
     </row>
     <row r="8">
@@ -1388,16 +1388,16 @@
         <v>350</v>
       </c>
       <c r="C8" s="0">
-        <v>-39.450000000000003</v>
+        <v>-39.590000000000004</v>
       </c>
       <c r="D8" s="0">
-        <v>18.579999999999998</v>
+        <v>13.93</v>
       </c>
       <c r="E8" s="0">
-        <v>76.579999999999998</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="F8" s="0">
-        <v>134.59</v>
+        <v>120.84999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -1406,16 +1406,16 @@
         <v>400</v>
       </c>
       <c r="C9" s="0">
-        <v>-30.800000000000001</v>
+        <v>-30.960000000000001</v>
       </c>
       <c r="D9" s="0">
-        <v>35.520000000000003</v>
+        <v>30.210000000000001</v>
       </c>
       <c r="E9" s="0">
-        <v>101.81</v>
+        <v>91.310000000000002</v>
       </c>
       <c r="F9" s="0">
-        <v>168.1</v>
+        <v>152.40000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1424,16 +1424,16 @@
         <v>450</v>
       </c>
       <c r="C10" s="0">
-        <v>-22.149999999999999</v>
+        <v>-22.329999999999998</v>
       </c>
       <c r="D10" s="0">
-        <v>52.460000000000001</v>
+        <v>46.479999999999997</v>
       </c>
       <c r="E10" s="0">
-        <v>127.04000000000001</v>
+        <v>115.23</v>
       </c>
       <c r="F10" s="0">
-        <v>201.61000000000001</v>
+        <v>183.94999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -1442,16 +1442,16 @@
         <v>500</v>
       </c>
       <c r="C11" s="0">
-        <v>-13.5</v>
+        <v>-13.699999999999999</v>
       </c>
       <c r="D11" s="0">
-        <v>69.400000000000006</v>
+        <v>62.759999999999998</v>
       </c>
       <c r="E11" s="0">
-        <v>152.25999999999999</v>
+        <v>139.13999999999999</v>
       </c>
       <c r="F11" s="0">
-        <v>235.12</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="12">
@@ -1460,16 +1460,16 @@
         <v>550</v>
       </c>
       <c r="C12" s="0">
-        <v>-4.8499999999999996</v>
+        <v>-5.0700000000000003</v>
       </c>
       <c r="D12" s="0">
-        <v>86.340000000000003</v>
+        <v>79.040000000000006</v>
       </c>
       <c r="E12" s="0">
-        <v>177.49000000000001</v>
+        <v>163.06</v>
       </c>
       <c r="F12" s="0">
-        <v>268.63999999999999</v>
+        <v>247.05000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -1478,16 +1478,16 @@
         <v>600</v>
       </c>
       <c r="C13" s="0">
-        <v>3.8100000000000001</v>
+        <v>3.5600000000000001</v>
       </c>
       <c r="D13" s="0">
-        <v>103.28</v>
+        <v>95.310000000000002</v>
       </c>
       <c r="E13" s="0">
-        <v>202.72</v>
+        <v>186.97</v>
       </c>
       <c r="F13" s="0">
-        <v>302.14999999999998</v>
+        <v>278.60000000000002</v>
       </c>
     </row>
     <row r="14">
@@ -1496,16 +1496,16 @@
         <v>650</v>
       </c>
       <c r="C14" s="0">
-        <v>12.460000000000001</v>
+        <v>12.19</v>
       </c>
       <c r="D14" s="0">
-        <v>120.22</v>
+        <v>111.59</v>
       </c>
       <c r="E14" s="0">
-        <v>227.94</v>
+        <v>210.88</v>
       </c>
       <c r="F14" s="0">
-        <v>335.66000000000003</v>
+        <v>310.14999999999998</v>
       </c>
     </row>
     <row r="15">
@@ -1514,16 +1514,16 @@
         <v>700</v>
       </c>
       <c r="C15" s="0">
-        <v>21.11</v>
+        <v>20.82</v>
       </c>
       <c r="D15" s="0">
-        <v>137.16</v>
+        <v>127.87</v>
       </c>
       <c r="E15" s="0">
-        <v>253.16999999999999</v>
+        <v>234.80000000000001</v>
       </c>
       <c r="F15" s="0">
-        <v>369.17000000000002</v>
+        <v>341.69999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1532,16 +1532,16 @@
         <v>750</v>
       </c>
       <c r="C16" s="0">
-        <v>29.760000000000002</v>
+        <v>29.449999999999999</v>
       </c>
       <c r="D16" s="0">
-        <v>154.09</v>
+        <v>144.13999999999999</v>
       </c>
       <c r="E16" s="0">
-        <v>278.38999999999999</v>
+        <v>258.70999999999998</v>
       </c>
       <c r="F16" s="0">
-        <v>402.68000000000001</v>
+        <v>373.25</v>
       </c>
     </row>
     <row r="17">
@@ -1550,16 +1550,16 @@
         <v>800</v>
       </c>
       <c r="C17" s="0">
-        <v>38.409999999999997</v>
+        <v>38.079999999999998</v>
       </c>
       <c r="D17" s="0">
-        <v>171.03</v>
+        <v>160.41999999999999</v>
       </c>
       <c r="E17" s="0">
-        <v>303.62</v>
+        <v>282.63</v>
       </c>
       <c r="F17" s="0">
-        <v>436.19999999999999</v>
+        <v>404.80000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1568,16 +1568,16 @@
         <v>850</v>
       </c>
       <c r="C18" s="0">
-        <v>47.060000000000002</v>
+        <v>46.710000000000001</v>
       </c>
       <c r="D18" s="0">
-        <v>187.97</v>
+        <v>176.69</v>
       </c>
       <c r="E18" s="0">
-        <v>328.85000000000002</v>
+        <v>306.54000000000002</v>
       </c>
       <c r="F18" s="0">
-        <v>469.70999999999998</v>
+        <v>436.35000000000002</v>
       </c>
     </row>
     <row r="19">
@@ -1586,16 +1586,16 @@
         <v>900</v>
       </c>
       <c r="C19" s="0">
-        <v>55.710000000000001</v>
+        <v>55.350000000000001</v>
       </c>
       <c r="D19" s="0">
-        <v>204.91</v>
+        <v>192.97</v>
       </c>
       <c r="E19" s="0">
-        <v>354.06999999999999</v>
+        <v>330.44999999999999</v>
       </c>
       <c r="F19" s="0">
-        <v>503.22000000000003</v>
+        <v>467.89999999999998</v>
       </c>
     </row>
     <row r="20">
@@ -1604,16 +1604,16 @@
         <v>950</v>
       </c>
       <c r="C20" s="0">
-        <v>64.36</v>
+        <v>63.979999999999997</v>
       </c>
       <c r="D20" s="0">
-        <v>221.85</v>
+        <v>209.25</v>
       </c>
       <c r="E20" s="0">
-        <v>379.30000000000001</v>
+        <v>354.37</v>
       </c>
       <c r="F20" s="0">
-        <v>536.73000000000002</v>
+        <v>499.44999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1622,16 +1622,16 @@
         <v>1000</v>
       </c>
       <c r="C21" s="0">
-        <v>73.010000000000005</v>
+        <v>72.61</v>
       </c>
       <c r="D21" s="0">
-        <v>238.78999999999999</v>
+        <v>225.52000000000001</v>
       </c>
       <c r="E21" s="0">
-        <v>404.52999999999997</v>
+        <v>378.27999999999997</v>
       </c>
       <c r="F21" s="0">
-        <v>570.25</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -1690,16 +1690,16 @@
         <v>100</v>
       </c>
       <c r="C3" s="0">
-        <v>-83.120000000000005</v>
+        <v>-83.129999999999996</v>
       </c>
       <c r="D3" s="0">
-        <v>-66.239999999999995</v>
+        <v>-66.280000000000001</v>
       </c>
       <c r="E3" s="0">
-        <v>-49.369999999999998</v>
+        <v>-49.420000000000002</v>
       </c>
       <c r="F3" s="0">
-        <v>-32.490000000000002</v>
+        <v>-32.57</v>
       </c>
     </row>
     <row r="4">
@@ -1708,16 +1708,16 @@
         <v>150</v>
       </c>
       <c r="C4" s="0">
-        <v>-74.680000000000007</v>
+        <v>-74.700000000000003</v>
       </c>
       <c r="D4" s="0">
-        <v>-49.36</v>
+        <v>-49.409999999999997</v>
       </c>
       <c r="E4" s="0">
-        <v>-24.050000000000001</v>
+        <v>-24.129999999999999</v>
       </c>
       <c r="F4" s="0">
-        <v>1.26</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1726,16 +1726,16 @@
         <v>200</v>
       </c>
       <c r="C5" s="0">
-        <v>-66.239999999999995</v>
+        <v>-66.260000000000005</v>
       </c>
       <c r="D5" s="0">
-        <v>-32.490000000000002</v>
+        <v>-32.549999999999997</v>
       </c>
       <c r="E5" s="0">
-        <v>1.27</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="F5" s="0">
-        <v>35.020000000000003</v>
+        <v>34.86</v>
       </c>
     </row>
     <row r="6">
@@ -1744,16 +1744,16 @@
         <v>250</v>
       </c>
       <c r="C6" s="0">
-        <v>-57.799999999999997</v>
+        <v>-57.829999999999998</v>
       </c>
       <c r="D6" s="0">
-        <v>-15.609999999999999</v>
+        <v>-15.69</v>
       </c>
       <c r="E6" s="0">
-        <v>26.579999999999998</v>
+        <v>26.440000000000001</v>
       </c>
       <c r="F6" s="0">
-        <v>68.769999999999996</v>
+        <v>68.569999999999993</v>
       </c>
     </row>
     <row r="7">
@@ -1762,16 +1762,16 @@
         <v>300</v>
       </c>
       <c r="C7" s="0">
-        <v>-49.36</v>
+        <v>-49.399999999999999</v>
       </c>
       <c r="D7" s="0">
-        <v>1.27</v>
+        <v>1.1699999999999999</v>
       </c>
       <c r="E7" s="0">
-        <v>51.899999999999999</v>
+        <v>51.729999999999997</v>
       </c>
       <c r="F7" s="0">
-        <v>102.53</v>
+        <v>102.29000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1780,16 +1780,16 @@
         <v>350</v>
       </c>
       <c r="C8" s="0">
-        <v>-40.920000000000002</v>
+        <v>-40.960000000000001</v>
       </c>
       <c r="D8" s="0">
-        <v>18.149999999999999</v>
+        <v>18.030000000000001</v>
       </c>
       <c r="E8" s="0">
-        <v>77.219999999999999</v>
+        <v>77.019999999999996</v>
       </c>
       <c r="F8" s="0">
-        <v>136.28</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
@@ -1798,16 +1798,16 @@
         <v>400</v>
       </c>
       <c r="C9" s="0">
-        <v>-32.479999999999997</v>
+        <v>-32.530000000000001</v>
       </c>
       <c r="D9" s="0">
-        <v>35.030000000000001</v>
+        <v>34.890000000000001</v>
       </c>
       <c r="E9" s="0">
-        <v>102.53</v>
+        <v>102.31</v>
       </c>
       <c r="F9" s="0">
-        <v>170.03999999999999</v>
+        <v>169.72</v>
       </c>
     </row>
     <row r="10">
@@ -1816,16 +1816,16 @@
         <v>450</v>
       </c>
       <c r="C10" s="0">
-        <v>-24.039999999999999</v>
+        <v>-24.09</v>
       </c>
       <c r="D10" s="0">
-        <v>51.909999999999997</v>
+        <v>51.759999999999998</v>
       </c>
       <c r="E10" s="0">
-        <v>127.84999999999999</v>
+        <v>127.59999999999999</v>
       </c>
       <c r="F10" s="0">
-        <v>203.78999999999999</v>
+        <v>203.43000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1834,16 +1834,16 @@
         <v>500</v>
       </c>
       <c r="C11" s="0">
-        <v>-15.6</v>
+        <v>-15.66</v>
       </c>
       <c r="D11" s="0">
-        <v>68.790000000000006</v>
+        <v>68.620000000000005</v>
       </c>
       <c r="E11" s="0">
-        <v>153.16999999999999</v>
+        <v>152.88</v>
       </c>
       <c r="F11" s="0">
-        <v>237.53999999999999</v>
+        <v>237.15000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -1852,16 +1852,16 @@
         <v>550</v>
       </c>
       <c r="C12" s="0">
-        <v>-7.1600000000000001</v>
+        <v>-7.2300000000000004</v>
       </c>
       <c r="D12" s="0">
-        <v>85.659999999999997</v>
+        <v>85.480000000000004</v>
       </c>
       <c r="E12" s="0">
-        <v>178.47999999999999</v>
+        <v>178.16999999999999</v>
       </c>
       <c r="F12" s="0">
-        <v>271.30000000000001</v>
+        <v>270.86000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -1870,16 +1870,16 @@
         <v>600</v>
       </c>
       <c r="C13" s="0">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="D13" s="0">
-        <v>102.54000000000001</v>
+        <v>102.34</v>
       </c>
       <c r="E13" s="0">
-        <v>203.80000000000001</v>
+        <v>203.46000000000001</v>
       </c>
       <c r="F13" s="0">
-        <v>305.05000000000001</v>
+        <v>304.57999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -1888,16 +1888,16 @@
         <v>650</v>
       </c>
       <c r="C14" s="0">
-        <v>9.7200000000000006</v>
+        <v>9.6400000000000006</v>
       </c>
       <c r="D14" s="0">
-        <v>119.42</v>
+        <v>119.2</v>
       </c>
       <c r="E14" s="0">
-        <v>229.11000000000001</v>
+        <v>228.75</v>
       </c>
       <c r="F14" s="0">
-        <v>338.81</v>
+        <v>338.29000000000002</v>
       </c>
     </row>
     <row r="15">
@@ -1906,16 +1906,16 @@
         <v>700</v>
       </c>
       <c r="C15" s="0">
-        <v>18.16</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="D15" s="0">
-        <v>136.30000000000001</v>
+        <v>136.06</v>
       </c>
       <c r="E15" s="0">
-        <v>254.43000000000001</v>
+        <v>254.03999999999999</v>
       </c>
       <c r="F15" s="0">
-        <v>372.56</v>
+        <v>372.00999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1924,16 +1924,16 @@
         <v>750</v>
       </c>
       <c r="C16" s="0">
-        <v>26.61</v>
+        <v>26.510000000000002</v>
       </c>
       <c r="D16" s="0">
-        <v>153.18000000000001</v>
+        <v>152.93000000000001</v>
       </c>
       <c r="E16" s="0">
-        <v>279.75</v>
+        <v>279.32999999999999</v>
       </c>
       <c r="F16" s="0">
-        <v>406.31999999999999</v>
+        <v>405.72000000000003</v>
       </c>
     </row>
     <row r="17">
@@ -1942,16 +1942,16 @@
         <v>800</v>
       </c>
       <c r="C17" s="0">
-        <v>35.049999999999997</v>
+        <v>34.939999999999998</v>
       </c>
       <c r="D17" s="0">
-        <v>170.06</v>
+        <v>169.78999999999999</v>
       </c>
       <c r="E17" s="0">
-        <v>305.06</v>
+        <v>304.61000000000001</v>
       </c>
       <c r="F17" s="0">
-        <v>440.06999999999999</v>
+        <v>439.44</v>
       </c>
     </row>
     <row r="18">
@@ -1960,16 +1960,16 @@
         <v>850</v>
       </c>
       <c r="C18" s="0">
-        <v>43.490000000000002</v>
+        <v>43.380000000000003</v>
       </c>
       <c r="D18" s="0">
-        <v>186.94</v>
+        <v>186.65000000000001</v>
       </c>
       <c r="E18" s="0">
-        <v>330.38</v>
+        <v>329.89999999999998</v>
       </c>
       <c r="F18" s="0">
-        <v>473.81999999999999</v>
+        <v>473.14999999999998</v>
       </c>
     </row>
     <row r="19">
@@ -1978,16 +1978,16 @@
         <v>900</v>
       </c>
       <c r="C19" s="0">
-        <v>51.93</v>
+        <v>51.810000000000002</v>
       </c>
       <c r="D19" s="0">
-        <v>203.81</v>
+        <v>203.50999999999999</v>
       </c>
       <c r="E19" s="0">
-        <v>355.69999999999999</v>
+        <v>355.19</v>
       </c>
       <c r="F19" s="0">
-        <v>507.57999999999999</v>
+        <v>506.87</v>
       </c>
     </row>
     <row r="20">
@@ -1996,16 +1996,16 @@
         <v>950</v>
       </c>
       <c r="C20" s="0">
-        <v>60.369999999999998</v>
+        <v>60.25</v>
       </c>
       <c r="D20" s="0">
-        <v>220.69</v>
+        <v>220.37</v>
       </c>
       <c r="E20" s="0">
-        <v>381.00999999999999</v>
+        <v>380.48000000000002</v>
       </c>
       <c r="F20" s="0">
-        <v>541.33000000000004</v>
+        <v>540.58000000000004</v>
       </c>
     </row>
     <row r="21">
@@ -2014,16 +2014,16 @@
         <v>1000</v>
       </c>
       <c r="C21" s="0">
-        <v>68.810000000000002</v>
+        <v>68.680000000000007</v>
       </c>
       <c r="D21" s="0">
-        <v>237.56999999999999</v>
+        <v>237.22999999999999</v>
       </c>
       <c r="E21" s="0">
-        <v>406.32999999999999</v>
+        <v>405.76999999999998</v>
       </c>
       <c r="F21" s="0">
-        <v>575.09000000000003</v>
+        <v>574.29999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -2082,16 +2082,16 @@
         <v>100</v>
       </c>
       <c r="C3" s="0">
-        <v>-82.670000000000002</v>
+        <v>-82.739999999999995</v>
       </c>
       <c r="D3" s="0">
-        <v>-65.349999999999994</v>
+        <v>-65.489999999999995</v>
       </c>
       <c r="E3" s="0">
-        <v>-48.030000000000001</v>
+        <v>-48.240000000000002</v>
       </c>
       <c r="F3" s="0">
-        <v>-30.710000000000001</v>
+        <v>-30.989999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -2100,16 +2100,16 @@
         <v>150</v>
       </c>
       <c r="C4" s="0">
-        <v>-74.010000000000005</v>
+        <v>-74.11</v>
       </c>
       <c r="D4" s="0">
-        <v>-48.030000000000001</v>
+        <v>-48.229999999999997</v>
       </c>
       <c r="E4" s="0">
-        <v>-22.050000000000001</v>
+        <v>-22.36</v>
       </c>
       <c r="F4" s="0">
-        <v>3.9300000000000002</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="5">
@@ -2118,16 +2118,16 @@
         <v>200</v>
       </c>
       <c r="C5" s="0">
-        <v>-65.349999999999994</v>
+        <v>-65.480000000000004</v>
       </c>
       <c r="D5" s="0">
-        <v>-30.710000000000001</v>
+        <v>-30.969999999999999</v>
       </c>
       <c r="E5" s="0">
-        <v>3.9300000000000002</v>
+        <v>3.5299999999999998</v>
       </c>
       <c r="F5" s="0">
-        <v>38.57</v>
+        <v>38.020000000000003</v>
       </c>
     </row>
     <row r="6">
@@ -2136,16 +2136,16 @@
         <v>250</v>
       </c>
       <c r="C6" s="0">
-        <v>-56.689999999999998</v>
+        <v>-56.840000000000004</v>
       </c>
       <c r="D6" s="0">
-        <v>-13.380000000000001</v>
+        <v>-13.720000000000001</v>
       </c>
       <c r="E6" s="0">
-        <v>29.920000000000002</v>
+        <v>29.41</v>
       </c>
       <c r="F6" s="0">
-        <v>73.219999999999999</v>
+        <v>72.530000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -2154,16 +2154,16 @@
         <v>300</v>
       </c>
       <c r="C7" s="0">
-        <v>-48.020000000000003</v>
+        <v>-48.210000000000001</v>
       </c>
       <c r="D7" s="0">
-        <v>3.94</v>
+        <v>3.54</v>
       </c>
       <c r="E7" s="0">
-        <v>55.899999999999999</v>
+        <v>55.289999999999999</v>
       </c>
       <c r="F7" s="0">
-        <v>107.86</v>
+        <v>107.04000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -2172,16 +2172,16 @@
         <v>350</v>
       </c>
       <c r="C8" s="0">
-        <v>-39.36</v>
+        <v>-39.579999999999998</v>
       </c>
       <c r="D8" s="0">
-        <v>21.260000000000002</v>
+        <v>20.800000000000001</v>
       </c>
       <c r="E8" s="0">
-        <v>81.879999999999996</v>
+        <v>81.170000000000002</v>
       </c>
       <c r="F8" s="0">
-        <v>142.50999999999999</v>
+        <v>141.53999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -2190,16 +2190,16 @@
         <v>400</v>
       </c>
       <c r="C9" s="0">
-        <v>-30.699999999999999</v>
+        <v>-30.949999999999999</v>
       </c>
       <c r="D9" s="0">
-        <v>38.579999999999998</v>
+        <v>38.049999999999997</v>
       </c>
       <c r="E9" s="0">
-        <v>107.87</v>
+        <v>107.05</v>
       </c>
       <c r="F9" s="0">
-        <v>177.15000000000001</v>
+        <v>176.05000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -2208,16 +2208,16 @@
         <v>450</v>
       </c>
       <c r="C10" s="0">
-        <v>-22.039999999999999</v>
+        <v>-22.32</v>
       </c>
       <c r="D10" s="0">
-        <v>55.909999999999997</v>
+        <v>55.310000000000002</v>
       </c>
       <c r="E10" s="0">
-        <v>133.85</v>
+        <v>132.93000000000001</v>
       </c>
       <c r="F10" s="0">
-        <v>211.78999999999999</v>
+        <v>210.55000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -2226,16 +2226,16 @@
         <v>500</v>
       </c>
       <c r="C11" s="0">
-        <v>-13.369999999999999</v>
+        <v>-13.69</v>
       </c>
       <c r="D11" s="0">
-        <v>73.230000000000004</v>
+        <v>72.569999999999993</v>
       </c>
       <c r="E11" s="0">
-        <v>159.83000000000001</v>
+        <v>158.81999999999999</v>
       </c>
       <c r="F11" s="0">
-        <v>246.44</v>
+        <v>245.06</v>
       </c>
     </row>
     <row r="12">
@@ -2244,16 +2244,16 @@
         <v>550</v>
       </c>
       <c r="C12" s="0">
-        <v>-4.71</v>
+        <v>-5.0599999999999996</v>
       </c>
       <c r="D12" s="0">
-        <v>90.549999999999997</v>
+        <v>89.829999999999998</v>
       </c>
       <c r="E12" s="0">
-        <v>185.81999999999999</v>
+        <v>184.69999999999999</v>
       </c>
       <c r="F12" s="0">
-        <v>281.07999999999999</v>
+        <v>279.56999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -2262,16 +2262,16 @@
         <v>600</v>
       </c>
       <c r="C13" s="0">
-        <v>3.9500000000000002</v>
+        <v>3.5699999999999999</v>
       </c>
       <c r="D13" s="0">
-        <v>107.88</v>
+        <v>107.08</v>
       </c>
       <c r="E13" s="0">
-        <v>211.80000000000001</v>
+        <v>210.58000000000001</v>
       </c>
       <c r="F13" s="0">
-        <v>315.72000000000003</v>
+        <v>314.06999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -2280,16 +2280,16 @@
         <v>650</v>
       </c>
       <c r="C14" s="0">
-        <v>12.609999999999999</v>
+        <v>12.199999999999999</v>
       </c>
       <c r="D14" s="0">
-        <v>125.2</v>
+        <v>124.34</v>
       </c>
       <c r="E14" s="0">
-        <v>237.78999999999999</v>
+        <v>236.46000000000001</v>
       </c>
       <c r="F14" s="0">
-        <v>350.37</v>
+        <v>348.57999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -2298,16 +2298,16 @@
         <v>700</v>
       </c>
       <c r="C15" s="0">
-        <v>21.280000000000001</v>
+        <v>20.84</v>
       </c>
       <c r="D15" s="0">
-        <v>142.52000000000001</v>
+        <v>141.6</v>
       </c>
       <c r="E15" s="0">
-        <v>263.76999999999998</v>
+        <v>262.33999999999997</v>
       </c>
       <c r="F15" s="0">
-        <v>385.00999999999999</v>
+        <v>383.08999999999998</v>
       </c>
     </row>
     <row r="16">
@@ -2316,16 +2316,16 @@
         <v>750</v>
       </c>
       <c r="C16" s="0">
-        <v>29.940000000000001</v>
+        <v>29.469999999999999</v>
       </c>
       <c r="D16" s="0">
-        <v>159.85</v>
+        <v>158.85</v>
       </c>
       <c r="E16" s="0">
-        <v>289.75</v>
+        <v>288.22000000000003</v>
       </c>
       <c r="F16" s="0">
-        <v>419.66000000000003</v>
+        <v>417.58999999999998</v>
       </c>
     </row>
     <row r="17">
@@ -2334,16 +2334,16 @@
         <v>800</v>
       </c>
       <c r="C17" s="0">
-        <v>38.600000000000001</v>
+        <v>38.100000000000001</v>
       </c>
       <c r="D17" s="0">
-        <v>177.16999999999999</v>
+        <v>176.11000000000001</v>
       </c>
       <c r="E17" s="0">
-        <v>315.74000000000001</v>
+        <v>314.11000000000001</v>
       </c>
       <c r="F17" s="0">
-        <v>454.30000000000001</v>
+        <v>452.10000000000002</v>
       </c>
     </row>
     <row r="18">
@@ -2352,16 +2352,16 @@
         <v>850</v>
       </c>
       <c r="C18" s="0">
-        <v>47.259999999999998</v>
+        <v>46.729999999999997</v>
       </c>
       <c r="D18" s="0">
-        <v>194.49000000000001</v>
+        <v>193.37</v>
       </c>
       <c r="E18" s="0">
-        <v>341.72000000000003</v>
+        <v>339.99000000000001</v>
       </c>
       <c r="F18" s="0">
-        <v>488.94</v>
+        <v>486.60000000000002</v>
       </c>
     </row>
     <row r="19">
@@ -2370,16 +2370,16 @@
         <v>900</v>
       </c>
       <c r="C19" s="0">
-        <v>55.93</v>
+        <v>55.36</v>
       </c>
       <c r="D19" s="0">
-        <v>211.81999999999999</v>
+        <v>210.62</v>
       </c>
       <c r="E19" s="0">
-        <v>367.69999999999999</v>
+        <v>365.87</v>
       </c>
       <c r="F19" s="0">
-        <v>523.59000000000003</v>
+        <v>521.11000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -2388,16 +2388,16 @@
         <v>950</v>
       </c>
       <c r="C20" s="0">
-        <v>64.590000000000003</v>
+        <v>63.990000000000002</v>
       </c>
       <c r="D20" s="0">
-        <v>229.13999999999999</v>
+        <v>227.88</v>
       </c>
       <c r="E20" s="0">
-        <v>393.69</v>
+        <v>391.75</v>
       </c>
       <c r="F20" s="0">
-        <v>558.23000000000002</v>
+        <v>555.62</v>
       </c>
     </row>
     <row r="21">
@@ -2406,16 +2406,16 @@
         <v>1000</v>
       </c>
       <c r="C21" s="0">
-        <v>73.25</v>
+        <v>72.620000000000005</v>
       </c>
       <c r="D21" s="0">
-        <v>246.46000000000001</v>
+        <v>245.13999999999999</v>
       </c>
       <c r="E21" s="0">
-        <v>419.67000000000002</v>
+        <v>417.63</v>
       </c>
       <c r="F21" s="0">
-        <v>592.87</v>
+        <v>590.12</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/RIF/Tables/AUC_comparisons.xlsx
+++ b/Outputs/RIF/Tables/AUC_comparisons.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="87" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="93" uniqueCount="3">
   <si>
     <t>AUC_24; % Higher than Oral Dose</t>
   </si>
@@ -122,16 +122,16 @@
         <v>100</v>
       </c>
       <c r="C3" s="0">
-        <v>-82.540000000000006</v>
+        <v>-82.879999999999996</v>
       </c>
       <c r="D3" s="0">
-        <v>-65.090000000000003</v>
+        <v>-65.769999999999996</v>
       </c>
       <c r="E3" s="0">
-        <v>-47.640000000000001</v>
+        <v>-48.670000000000002</v>
       </c>
       <c r="F3" s="0">
-        <v>-30.199999999999999</v>
+        <v>-31.559999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -140,16 +140,16 @@
         <v>150</v>
       </c>
       <c r="C4" s="0">
-        <v>-73.810000000000002</v>
+        <v>-74.319999999999993</v>
       </c>
       <c r="D4" s="0">
-        <v>-47.640000000000001</v>
+        <v>-48.659999999999997</v>
       </c>
       <c r="E4" s="0">
-        <v>-21.469999999999999</v>
+        <v>-23</v>
       </c>
       <c r="F4" s="0">
-        <v>4.7000000000000002</v>
+        <v>2.6600000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -158,16 +158,16 @@
         <v>200</v>
       </c>
       <c r="C5" s="0">
-        <v>-65.079999999999998</v>
+        <v>-65.760000000000005</v>
       </c>
       <c r="D5" s="0">
-        <v>-30.18</v>
+        <v>-31.539999999999999</v>
       </c>
       <c r="E5" s="0">
-        <v>4.71</v>
+        <v>2.6699999999999999</v>
       </c>
       <c r="F5" s="0">
-        <v>39.600000000000001</v>
+        <v>36.880000000000003</v>
       </c>
     </row>
     <row r="6">
@@ -176,16 +176,16 @@
         <v>250</v>
       </c>
       <c r="C6" s="0">
-        <v>-56.350000000000001</v>
+        <v>-57.200000000000003</v>
       </c>
       <c r="D6" s="0">
-        <v>-12.73</v>
+        <v>-14.43</v>
       </c>
       <c r="E6" s="0">
-        <v>30.890000000000001</v>
+        <v>28.34</v>
       </c>
       <c r="F6" s="0">
-        <v>74.510000000000005</v>
+        <v>71.099999999999994</v>
       </c>
     </row>
     <row r="7">
@@ -194,16 +194,16 @@
         <v>300</v>
       </c>
       <c r="C7" s="0">
-        <v>-47.619999999999998</v>
+        <v>-48.640000000000001</v>
       </c>
       <c r="D7" s="0">
-        <v>4.7199999999999998</v>
+        <v>2.69</v>
       </c>
       <c r="E7" s="0">
-        <v>57.07</v>
+        <v>54</v>
       </c>
       <c r="F7" s="0">
-        <v>109.41</v>
+        <v>105.31999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -212,16 +212,16 @@
         <v>350</v>
       </c>
       <c r="C8" s="0">
-        <v>-38.899999999999999</v>
+        <v>-40.079999999999998</v>
       </c>
       <c r="D8" s="0">
-        <v>22.18</v>
+        <v>19.800000000000001</v>
       </c>
       <c r="E8" s="0">
-        <v>83.239999999999995</v>
+        <v>79.670000000000002</v>
       </c>
       <c r="F8" s="0">
-        <v>144.31</v>
+        <v>139.53999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -230,16 +230,16 @@
         <v>400</v>
       </c>
       <c r="C9" s="0">
-        <v>-30.170000000000002</v>
+        <v>-31.52</v>
       </c>
       <c r="D9" s="0">
-        <v>39.630000000000003</v>
+        <v>36.920000000000002</v>
       </c>
       <c r="E9" s="0">
-        <v>109.42</v>
+        <v>105.34</v>
       </c>
       <c r="F9" s="0">
-        <v>179.21000000000001</v>
+        <v>173.75999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -248,16 +248,16 @@
         <v>450</v>
       </c>
       <c r="C10" s="0">
-        <v>-21.440000000000001</v>
+        <v>-22.960000000000001</v>
       </c>
       <c r="D10" s="0">
-        <v>57.090000000000004</v>
+        <v>54.030000000000001</v>
       </c>
       <c r="E10" s="0">
-        <v>135.6</v>
+        <v>131</v>
       </c>
       <c r="F10" s="0">
-        <v>214.11000000000001</v>
+        <v>207.97999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -266,16 +266,16 @@
         <v>500</v>
       </c>
       <c r="C11" s="0">
-        <v>-12.710000000000001</v>
+        <v>-14.390000000000001</v>
       </c>
       <c r="D11" s="0">
-        <v>74.540000000000006</v>
+        <v>71.140000000000001</v>
       </c>
       <c r="E11" s="0">
-        <v>161.78</v>
+        <v>156.66999999999999</v>
       </c>
       <c r="F11" s="0">
-        <v>249.00999999999999</v>
+        <v>242.19</v>
       </c>
     </row>
     <row r="12">
@@ -284,16 +284,16 @@
         <v>550</v>
       </c>
       <c r="C12" s="0">
-        <v>-3.98</v>
+        <v>-5.8300000000000001</v>
       </c>
       <c r="D12" s="0">
-        <v>91.989999999999995</v>
+        <v>88.260000000000005</v>
       </c>
       <c r="E12" s="0">
-        <v>187.94999999999999</v>
+        <v>182.34</v>
       </c>
       <c r="F12" s="0">
-        <v>283.91000000000003</v>
+        <v>276.41000000000003</v>
       </c>
     </row>
     <row r="13">
@@ -302,16 +302,16 @@
         <v>600</v>
       </c>
       <c r="C13" s="0">
-        <v>4.75</v>
+        <v>2.73</v>
       </c>
       <c r="D13" s="0">
-        <v>109.45</v>
+        <v>105.37</v>
       </c>
       <c r="E13" s="0">
-        <v>214.13</v>
+        <v>208.00999999999999</v>
       </c>
       <c r="F13" s="0">
-        <v>318.81</v>
+        <v>310.63</v>
       </c>
     </row>
     <row r="14">
@@ -320,16 +320,16 @@
         <v>650</v>
       </c>
       <c r="C14" s="0">
-        <v>13.48</v>
+        <v>11.289999999999999</v>
       </c>
       <c r="D14" s="0">
-        <v>126.90000000000001</v>
+        <v>122.48999999999999</v>
       </c>
       <c r="E14" s="0">
-        <v>240.31</v>
+        <v>233.66999999999999</v>
       </c>
       <c r="F14" s="0">
-        <v>353.72000000000003</v>
+        <v>344.85000000000002</v>
       </c>
     </row>
     <row r="15">
@@ -338,16 +338,16 @@
         <v>700</v>
       </c>
       <c r="C15" s="0">
-        <v>22.210000000000001</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="D15" s="0">
-        <v>144.35</v>
+        <v>139.6</v>
       </c>
       <c r="E15" s="0">
-        <v>266.49000000000001</v>
+        <v>259.33999999999997</v>
       </c>
       <c r="F15" s="0">
-        <v>388.62</v>
+        <v>379.06999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -356,16 +356,16 @@
         <v>750</v>
       </c>
       <c r="C16" s="0">
-        <v>30.940000000000001</v>
+        <v>28.41</v>
       </c>
       <c r="D16" s="0">
-        <v>161.81</v>
+        <v>156.72</v>
       </c>
       <c r="E16" s="0">
-        <v>292.66000000000003</v>
+        <v>285.00999999999999</v>
       </c>
       <c r="F16" s="0">
-        <v>423.51999999999998</v>
+        <v>413.29000000000002</v>
       </c>
     </row>
     <row r="17">
@@ -374,16 +374,16 @@
         <v>800</v>
       </c>
       <c r="C17" s="0">
-        <v>39.670000000000002</v>
+        <v>36.969999999999999</v>
       </c>
       <c r="D17" s="0">
-        <v>179.25999999999999</v>
+        <v>173.83000000000001</v>
       </c>
       <c r="E17" s="0">
-        <v>318.83999999999998</v>
+        <v>310.67000000000002</v>
       </c>
       <c r="F17" s="0">
-        <v>458.42000000000002</v>
+        <v>447.50999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -392,16 +392,16 @@
         <v>850</v>
       </c>
       <c r="C18" s="0">
-        <v>48.399999999999999</v>
+        <v>45.530000000000001</v>
       </c>
       <c r="D18" s="0">
-        <v>196.72</v>
+        <v>190.94999999999999</v>
       </c>
       <c r="E18" s="0">
-        <v>345.01999999999998</v>
+        <v>336.33999999999998</v>
       </c>
       <c r="F18" s="0">
-        <v>493.31999999999999</v>
+        <v>481.73000000000002</v>
       </c>
     </row>
     <row r="19">
@@ -410,16 +410,16 @@
         <v>900</v>
       </c>
       <c r="C19" s="0">
-        <v>57.130000000000003</v>
+        <v>54.090000000000004</v>
       </c>
       <c r="D19" s="0">
-        <v>214.16999999999999</v>
+        <v>208.06</v>
       </c>
       <c r="E19" s="0">
-        <v>371.19999999999999</v>
+        <v>362.00999999999999</v>
       </c>
       <c r="F19" s="0">
-        <v>528.22000000000003</v>
+        <v>515.95000000000005</v>
       </c>
     </row>
     <row r="20">
@@ -428,16 +428,16 @@
         <v>950</v>
       </c>
       <c r="C20" s="0">
-        <v>65.86</v>
+        <v>62.649999999999999</v>
       </c>
       <c r="D20" s="0">
-        <v>231.62</v>
+        <v>225.16999999999999</v>
       </c>
       <c r="E20" s="0">
-        <v>397.38</v>
+        <v>387.68000000000001</v>
       </c>
       <c r="F20" s="0">
-        <v>563.12</v>
+        <v>550.16999999999996</v>
       </c>
     </row>
     <row r="21">
@@ -446,16 +446,16 @@
         <v>1000</v>
       </c>
       <c r="C21" s="0">
-        <v>74.579999999999998</v>
+        <v>71.209999999999994</v>
       </c>
       <c r="D21" s="0">
-        <v>249.08000000000001</v>
+        <v>242.28999999999999</v>
       </c>
       <c r="E21" s="0">
-        <v>423.55000000000001</v>
+        <v>413.33999999999998</v>
       </c>
       <c r="F21" s="0">
-        <v>598.01999999999998</v>
+        <v>584.38999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -906,16 +906,16 @@
         <v>100</v>
       </c>
       <c r="C3" s="0">
-        <v>-83.599999999999994</v>
+        <v>-83.61</v>
       </c>
       <c r="D3" s="0">
-        <v>-67.219999999999999</v>
+        <v>-67.230000000000004</v>
       </c>
       <c r="E3" s="0">
-        <v>-50.829999999999998</v>
+        <v>-50.850000000000001</v>
       </c>
       <c r="F3" s="0">
-        <v>-34.439999999999998</v>
+        <v>-34.479999999999997</v>
       </c>
     </row>
     <row r="4">
@@ -927,13 +927,13 @@
         <v>-75.409999999999997</v>
       </c>
       <c r="D4" s="0">
-        <v>-50.82</v>
+        <v>-50.840000000000004</v>
       </c>
       <c r="E4" s="0">
-        <v>-26.239999999999999</v>
+        <v>-26.280000000000001</v>
       </c>
       <c r="F4" s="0">
-        <v>-1.6699999999999999</v>
+        <v>-1.72</v>
       </c>
     </row>
     <row r="5">
@@ -942,16 +942,16 @@
         <v>200</v>
       </c>
       <c r="C5" s="0">
-        <v>-67.209999999999994</v>
+        <v>-67.219999999999999</v>
       </c>
       <c r="D5" s="0">
-        <v>-34.43</v>
+        <v>-34.460000000000001</v>
       </c>
       <c r="E5" s="0">
-        <v>-1.6599999999999999</v>
+        <v>-1.71</v>
       </c>
       <c r="F5" s="0">
-        <v>31.11</v>
+        <v>31.050000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -960,16 +960,16 @@
         <v>250</v>
       </c>
       <c r="C6" s="0">
-        <v>-59.009999999999998</v>
+        <v>-59.020000000000003</v>
       </c>
       <c r="D6" s="0">
-        <v>-18.039999999999999</v>
+        <v>-18.07</v>
       </c>
       <c r="E6" s="0">
-        <v>22.93</v>
+        <v>22.870000000000001</v>
       </c>
       <c r="F6" s="0">
-        <v>63.890000000000001</v>
+        <v>63.810000000000002</v>
       </c>
     </row>
     <row r="7">
@@ -978,16 +978,16 @@
         <v>300</v>
       </c>
       <c r="C7" s="0">
-        <v>-50.810000000000002</v>
+        <v>-50.82</v>
       </c>
       <c r="D7" s="0">
-        <v>-1.6499999999999999</v>
+        <v>-1.69</v>
       </c>
       <c r="E7" s="0">
-        <v>47.509999999999998</v>
+        <v>47.439999999999998</v>
       </c>
       <c r="F7" s="0">
-        <v>96.670000000000002</v>
+        <v>96.569999999999993</v>
       </c>
     </row>
     <row r="8">
@@ -996,16 +996,16 @@
         <v>350</v>
       </c>
       <c r="C8" s="0">
-        <v>-42.61</v>
+        <v>-42.630000000000003</v>
       </c>
       <c r="D8" s="0">
-        <v>14.75</v>
+        <v>14.699999999999999</v>
       </c>
       <c r="E8" s="0">
-        <v>72.099999999999994</v>
+        <v>72.010000000000005</v>
       </c>
       <c r="F8" s="0">
-        <v>129.44999999999999</v>
+        <v>129.33000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1014,16 +1014,16 @@
         <v>400</v>
       </c>
       <c r="C9" s="0">
-        <v>-34.409999999999997</v>
+        <v>-34.43</v>
       </c>
       <c r="D9" s="0">
-        <v>31.140000000000001</v>
+        <v>31.079999999999998</v>
       </c>
       <c r="E9" s="0">
-        <v>96.680000000000007</v>
+        <v>96.590000000000003</v>
       </c>
       <c r="F9" s="0">
-        <v>162.22999999999999</v>
+        <v>162.09</v>
       </c>
     </row>
     <row r="10">
@@ -1032,16 +1032,16 @@
         <v>450</v>
       </c>
       <c r="C10" s="0">
-        <v>-26.219999999999999</v>
+        <v>-26.239999999999999</v>
       </c>
       <c r="D10" s="0">
-        <v>47.530000000000001</v>
+        <v>47.469999999999999</v>
       </c>
       <c r="E10" s="0">
-        <v>121.27</v>
+        <v>121.16</v>
       </c>
       <c r="F10" s="0">
-        <v>195</v>
+        <v>194.85</v>
       </c>
     </row>
     <row r="11">
@@ -1050,16 +1050,16 @@
         <v>500</v>
       </c>
       <c r="C11" s="0">
-        <v>-18.02</v>
+        <v>-18.039999999999999</v>
       </c>
       <c r="D11" s="0">
-        <v>63.920000000000002</v>
+        <v>63.850000000000001</v>
       </c>
       <c r="E11" s="0">
-        <v>145.85</v>
+        <v>145.74000000000001</v>
       </c>
       <c r="F11" s="0">
-        <v>227.78</v>
+        <v>227.61000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -1068,16 +1068,16 @@
         <v>550</v>
       </c>
       <c r="C12" s="0">
-        <v>-9.8200000000000003</v>
+        <v>-9.8499999999999997</v>
       </c>
       <c r="D12" s="0">
-        <v>80.319999999999993</v>
+        <v>80.239999999999995</v>
       </c>
       <c r="E12" s="0">
-        <v>170.44</v>
+        <v>170.31</v>
       </c>
       <c r="F12" s="0">
-        <v>260.56</v>
+        <v>260.38</v>
       </c>
     </row>
     <row r="13">
@@ -1086,16 +1086,16 @@
         <v>600</v>
       </c>
       <c r="C13" s="0">
-        <v>-1.6200000000000001</v>
+        <v>-1.6499999999999999</v>
       </c>
       <c r="D13" s="0">
-        <v>96.709999999999994</v>
+        <v>96.620000000000005</v>
       </c>
       <c r="E13" s="0">
-        <v>195.02000000000001</v>
+        <v>194.88</v>
       </c>
       <c r="F13" s="0">
-        <v>293.33999999999998</v>
+        <v>293.13999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -1104,16 +1104,16 @@
         <v>650</v>
       </c>
       <c r="C14" s="0">
-        <v>6.5800000000000001</v>
+        <v>6.5499999999999998</v>
       </c>
       <c r="D14" s="0">
-        <v>113.09999999999999</v>
+        <v>113.01000000000001</v>
       </c>
       <c r="E14" s="0">
-        <v>219.61000000000001</v>
+        <v>219.46000000000001</v>
       </c>
       <c r="F14" s="0">
-        <v>326.12</v>
+        <v>325.89999999999998</v>
       </c>
     </row>
     <row r="15">
@@ -1122,16 +1122,16 @@
         <v>700</v>
       </c>
       <c r="C15" s="0">
-        <v>14.779999999999999</v>
+        <v>14.74</v>
       </c>
       <c r="D15" s="0">
-        <v>129.49000000000001</v>
+        <v>129.38999999999999</v>
       </c>
       <c r="E15" s="0">
-        <v>244.19999999999999</v>
+        <v>244.03</v>
       </c>
       <c r="F15" s="0">
-        <v>358.89999999999998</v>
+        <v>358.66000000000003</v>
       </c>
     </row>
     <row r="16">
@@ -1140,16 +1140,16 @@
         <v>750</v>
       </c>
       <c r="C16" s="0">
-        <v>22.969999999999999</v>
+        <v>22.940000000000001</v>
       </c>
       <c r="D16" s="0">
-        <v>145.88</v>
+        <v>145.78</v>
       </c>
       <c r="E16" s="0">
-        <v>268.77999999999997</v>
+        <v>268.60000000000002</v>
       </c>
       <c r="F16" s="0">
-        <v>391.67000000000002</v>
+        <v>391.42000000000002</v>
       </c>
     </row>
     <row r="17">
@@ -1158,16 +1158,16 @@
         <v>800</v>
       </c>
       <c r="C17" s="0">
-        <v>31.170000000000002</v>
+        <v>31.129999999999999</v>
       </c>
       <c r="D17" s="0">
-        <v>162.28</v>
+        <v>162.16</v>
       </c>
       <c r="E17" s="0">
-        <v>293.37</v>
+        <v>293.18000000000001</v>
       </c>
       <c r="F17" s="0">
-        <v>424.44999999999999</v>
+        <v>424.18000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1176,16 +1176,16 @@
         <v>850</v>
       </c>
       <c r="C18" s="0">
-        <v>39.369999999999998</v>
+        <v>39.329999999999998</v>
       </c>
       <c r="D18" s="0">
-        <v>178.66999999999999</v>
+        <v>178.55000000000001</v>
       </c>
       <c r="E18" s="0">
-        <v>317.94999999999999</v>
+        <v>317.75</v>
       </c>
       <c r="F18" s="0">
-        <v>457.23000000000002</v>
+        <v>456.94</v>
       </c>
     </row>
     <row r="19">
@@ -1194,16 +1194,16 @@
         <v>900</v>
       </c>
       <c r="C19" s="0">
-        <v>47.57</v>
+        <v>47.530000000000001</v>
       </c>
       <c r="D19" s="0">
-        <v>195.06</v>
+        <v>194.93000000000001</v>
       </c>
       <c r="E19" s="0">
-        <v>342.54000000000002</v>
+        <v>342.31999999999999</v>
       </c>
       <c r="F19" s="0">
-        <v>490.00999999999999</v>
+        <v>489.70999999999998</v>
       </c>
     </row>
     <row r="20">
@@ -1212,16 +1212,16 @@
         <v>950</v>
       </c>
       <c r="C20" s="0">
-        <v>55.770000000000003</v>
+        <v>55.719999999999999</v>
       </c>
       <c r="D20" s="0">
-        <v>211.44999999999999</v>
+        <v>211.31999999999999</v>
       </c>
       <c r="E20" s="0">
-        <v>367.12</v>
+        <v>366.89999999999998</v>
       </c>
       <c r="F20" s="0">
-        <v>522.78999999999996</v>
+        <v>522.47000000000003</v>
       </c>
     </row>
     <row r="21">
@@ -1230,16 +1230,16 @@
         <v>1000</v>
       </c>
       <c r="C21" s="0">
-        <v>63.969999999999999</v>
+        <v>63.920000000000002</v>
       </c>
       <c r="D21" s="0">
-        <v>227.85</v>
+        <v>227.69999999999999</v>
       </c>
       <c r="E21" s="0">
-        <v>391.70999999999998</v>
+        <v>391.47000000000003</v>
       </c>
       <c r="F21" s="0">
-        <v>555.57000000000005</v>
+        <v>555.23000000000002</v>
       </c>
     </row>
   </sheetData>
